--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m3.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,42 +560,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>De acordo com a padronização estabelecida para o corpo dos planos, como deve ser composto o título de um Plano de Mobilização de uma Força Singular (FS)?</t>
+          <t>De acordo com a doutrina apresentada, quais são os únicos Comandos Operacionais Conjuntos que possuem caráter permanente?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pelo nome da Força Singular seguido apenas do ano de vigência do plano.</t>
+          <t>Comando do Teatro de Operações (Cmdo TO) e Comando da Zona de Defesa (Cmdo ZD).</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pelas palavras PLANO DE MOBILIZAÇÃO (MARÍTIMA, TERRESTRE ou AEROESPACIAL) mais seu código, formado pela letra da Força e o código do PEECFA.</t>
+          <t>Comando de Operações Aeroespaciais (COMAE) e Comando de Defesa Cibernética (ComDCiber).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Exclusivamente pelo código do Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA), sem menção à Força específica.</t>
+          <t>Estado-Maior Conjunto (EMCFA) e Comando de Operações Navais.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pelo nome do Comandante da Força seguido do código de catalogação do Ministério da Defesa.</t>
+          <t>Forças de Paz e Forças Expedicionárias.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.3.1.1**, o título será composto pelas palavras do plano mais seu código, formado pela letra referente à Força seguida do código do PEECFA.</t>
+          <t>Conforme o **item 3.1.4**, o COMAE e o ComDCiber são os únicos Comandos Operacionais Conjuntos permanentes; os demais são temporários.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,42 +614,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Na Fase de Preparo da Mobilização, diversas ações gerais são planejadas. O que o manual estabelece sobre as "encomendas educativas"?</t>
+          <t>Como é definida a "Zona de Defesa (ZD)" dentro do contexto das áreas de responsabilidade dos Comandos Operacionais?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Devem ser evitadas para não comprometer o orçamento destinado à manutenção de pessoal na ativa.</t>
+          <t>É a área de combate principal onde ocorrem as operações de grande vulto e o apoio logístico pesado.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Devem ser direcionadas exclusivamente a empresas estrangeiras para garantir a transferência de tecnologia.</t>
+          <t>É um espaço geográfico fora do território nacional destinado a operações de paz.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Deve-se propor sua colocação nas empresas da Base Industrial de Defesa (BID), prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED).</t>
+          <t>É a parte do território nacional (Zona do Interior) onde um Comando planejará e coordenará ações de defesa territorial.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>São restritas à compra de material de escritório e suprimentos administrativos de baixo custo.</t>
+          <t>É a área de administração naval restrita às bases portuárias em tempo de guerra.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nos termos do **item 3.3.5.1, alínea "c"**, deve-se propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e nas ED.</t>
+          <t>Nos termos do **item 3.3.5.1**, a Zona de Defesa é parte do território nacional (Zona do Interior) para ações de defesa territorial.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,52 +668,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Durante a fase de Execução da Mobilização, qual é o objetivo das campanhas psicossociais a serem desenvolvidas?</t>
+          <t>O que se entende por "Estado Final Desejado (EFD)" no planejamento das operações conjuntas?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Obter o apoio no País e no exterior aos objetivos idealizados nos planejamentos de emprego das FS para atender à emergência configurada.</t>
+          <t>A destruição total da capacidade econômica do inimigo, independentemente dos objetivos políticos.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Recrutar compulsoriamente jovens universitários para o serviço burocrático nas capitais.</t>
+          <t>A situação política ou militar a ser alcançada ao final das operações, indicando se o efeito desejado foi obtido.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Desinformar o oponente através de notícias falsas disseminadas exclusivamente em território inimigo.</t>
+          <t>A assinatura formal de rendição incondicional por todas as forças oponentes no Teatro de Operações.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Garantir a reeleição dos governantes durante o período de exceção e crise militar.</t>
+          <t>O momento exato em que a Força Aérea conquista a superioridade aérea total sobre o território inimigo.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Conforme o **item 3.3.6, alínea "b"**, desenvolvem-se campanhas psicossociais visando obter o apoio no País e no exterior aos objetivos idealizados nos planejamentos.</t>
+          <t>Conforme o **item 3.4.3**, o EFD é a situação política ou militar a ser alcançada ao final das operações.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,164 +722,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>As ações da fase de Preparo da Desmobilização devem ser planejadas com antecedência. Qual das alternativas abaixo descreve corretamente uma atividade prevista para esta fase?</t>
+          <t>Em relação à subordinação dos meios, qual é a distinção feita entre "Comando Operacional" e "Controle Operacional"?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Iniciar a desmobilização total das tropas antes mesmo do fim das hostilidades para economizar recursos.</t>
+          <t>Comando Operacional refere-se a meios efetivamente adjudicados, enquanto Controle Operacional refere-se a meios para missões ou tarefas específicas.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Propor legislações e normas específicas, visando dar suporte jurídico às atividades da Desmobilização, inclusive a proposta de minuta de texto do decreto de Desmobilização.</t>
+          <t>Comando Operacional aplica-se apenas a forças terrestres, enquanto Controle Operacional aplica-se a forças navais e aéreas.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ignorar as carências incluídas no Plano de Mobilização, focando apenas nos novos contratos de aquisição.</t>
+          <t>Não há distinção doutrinária, sendo os termos intercambiáveis em operações conjuntas.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Manter a prioridade máxima de investimento nas indústrias de defesa, proibindo qualquer previsão de retorno à normalidade.</t>
+          <t>Controle Operacional implica autoridade total administrativa e logística, enquanto Comando Operacional é restrito ao emprego tático.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Segundo o **item 3.3.7, alínea "b"**, deve-se propor legislações e normas, inclusive a proposta de minuta de texto do decreto de Desmobilização.</t>
+          <t>De acordo com o **item 3.4.14**, meios sob Comando Operacional são efetivamente adjudicados, e sob Controle Operacional são para missões específicas.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pág 29</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Como devem ser tratadas as demandas identificadas pelas Forças Singulares que podem ser atendidas no prazo de até 3 (três) anos?</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Devem ser obrigatoriamente incluídas como "Carências de Mobilização" no P Mob da Força.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Devem ser descartadas, pois o planejamento de mobilização foca apenas no longo prazo (acima de 5 anos).</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Não serão consideradas carências de mobilização e comporão um planejamento logístico encaminhado ao MD independentemente dos planos de Mobilização.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Serão tratadas como "Carências Emergenciais" e exigirão a edição imediata de um Decreto de Mobilização.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Conforme o **item 3.3.9.3**, as demandas atendíveis em até 3 anos não serão consideradas carências e comporão um planejamento logístico encaminhado ao MD de forma independente.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pág 30</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Quem são as autoridades responsáveis pela assinatura do Plano de Mobilização da Força Singular?</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Apenas o Ministro da Defesa, dispensando a assinatura dos Comandantes de Força.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>O Chefe do Estado-Maior da FS, contendo a assinatura, em anuência, do Comandante da Força.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>O chefe da seção de logística e o oficial de mobilização da unidade mais antiga.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>O Presidente da República e o Presidente do Congresso Nacional, em conjunto.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>De acordo com o **item 3.3.12**, o plano deverá ser assinado pelo Chefe do Estado-Maior da FS e conterá a assinatura, em anuência, do Comandante da Força.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
